--- a/biology/Botanique/Laurisylve/Laurisylve.xlsx
+++ b/biology/Botanique/Laurisylve/Laurisylve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La laurisylve est un type de forêt subtropicale humide présente sur plusieurs des îles de la Macaronésie : Açores, Madère et îles Canaries. Elle présente des sols profonds et est caractéristique des versants septentrionaux soumis aux brumes des alizés, avec des précipitations annuelles de l’ordre de 500 à 1 100 mm d'eau et une température comprise entre 15 et 19 °C.
 Ces forêts se composent principalement de lauracées à feuilles persistantes, pouvant atteindre jusqu’à 40 mètres de hauteur, et abritent un riche biotope de plantes de sous-bois, d’invertébrés, d’oiseaux (pigeon des lauriers endémique des Canaries) et de chauves-souris, dont certains sont endémiques.
@@ -512,7 +524,9 @@
           <t>Laurisylve de Macaronésie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La laurisylve couvrait à l’origine une grande partie des Açores et de Madère, ainsi qu'une partie des îles occidentales des îles Canaries, mais les forêts ont été grandement réduites par la coupe, le défrichage pour l’agriculture et le pâturage, ainsi que l’invasion d’espèces exotiques.
 Les plus étendues des laurisylves sont toujours à Madère, où elle s'étage entre 300 et 1 300 mètres d’altitude, et où elles couvrent 149,5 km2, soit environ 16 % de la superficie de l’île. Aux îles Canaries, environ 100 km² laurisylves existent encore à La Palma, 60 km² à Tenerife et plus de 20 km2 dans le Parc national de Garajonay à La Gomera. Aux Açores, de petites étendues subsistent sur les îles de Pico, Terceira, et São Miguel.
@@ -544,7 +558,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les laurysilves de Macaronésie sont des reliques d’un type de végétation subtropicale humide qui couvrait à l’origine la plupart du Bassin méditerranéen et la Macaronésie lorsque le climat de la région était plus chaud et humide, durant une grande partie de l'ère Tertiaire.
 Lors du lent refroidissement du climat mondial durant le Pliocène qui a causé un assèchement général, en particulier dans le bassin de la Méditerranée, les forêts de lauriers reculèrent progressivement, remplacées par des espèces plus résistantes à la sécheresse (sclérophylles), correspondant à la flore méditerranéenne classique actuelle, bien qu'elles survécurent dans de nombreuses régions.
@@ -579,7 +595,9 @@
           <t>Composition floristique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lauracées prédominantes incluent le Til (Ocotea foetens), le laurier (Laurus novocanariensis aux îles Canaries et à Madère et Laurus azorica uniquement aux açores), Vinhático/Viñatigo (Persea indica), Barbosano/Barbuzano (Apollonias barbujana et Apollonias cebalosii). D’autres arbres importants appartenant à d'autres familles d'affinités tropicales et subtropicales incluent l’Aderno (Heberdenia excelsa et Pleiomeris canariensis, Myrsinacées), Pau branco/Palo blanco (Picconia excelsa et Picconia azorica, Oleacées), Mocanos/Mocán (Visnea mocanera, Ternstroemiacées), Pittosporum coriaceum (Pittosporacées), Sanguinho (Rhamnus glandulosa, Rhamnacées), et les arbustes Folhado (Clethra arborea) et Perado/Oranger sauvage (Ilex perado). Les forêts abritent un sous-bois riche en fougères et herbacées, telles les Leitugas (Sonchus spp.), géraniums (Geranium maderense, Geranium palmatum and Geranium rubescens), les Estreleiras (Argyranthemum spp.) et l’orchidée endémique Goodyera macrophylla.
 </t>
@@ -611,6 +629,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,7 +656,9 @@
           <t>Reconnaissance et protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La laurisylve de La Gomera (Parc national de Garajonay) a été déclarée patrimoine de l'humanité par le comité du patrimoine mondial de l’UNESCO en 1986 et celle de Madère en 1999.
  Portail du bois et de la forêt   Portail de l’écologie   Portail des îles Canaries   Portail des Açores   Portail de Madère                 </t>
